--- a/mapping/Protozoa.xlsx
+++ b/mapping/Protozoa.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B61"/>
+  <dimension ref="A1:B63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -604,550 +604,574 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Plasmopara</t>
+          <t>Bremia</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>单轴霉属</t>
+          <t>盘梗霉属</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Eimeria</t>
+          <t>Plasmopara</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>艾美球虫属</t>
+          <t>霜霉属</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Plasmodium</t>
+          <t>Ahnfeltia</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>疟原虫属</t>
+          <t>安丝藻属</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Chorda</t>
+          <t>Cyclospora</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>绳藻属</t>
+          <t>环孢子虫属</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Poterioochromonas</t>
+          <t>Besnoitia</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>波豆形金藻属</t>
+          <t>贝诺孢子虫属</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Besnoitia</t>
+          <t>Pleurostomum</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>贝诺孢子虫属</t>
+          <t>侧口虫属</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Aphanomyces</t>
+          <t>Salpingoeca</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>丝囊霉属</t>
+          <t>领鞭毛虫属</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Emiliania</t>
+          <t>Cyanophora</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>艾氏藻属</t>
+          <t>蓝隐藻属</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Pleurostomum</t>
+          <t>Eimeria</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>侧口虫属</t>
+          <t>艾美球虫属</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Chondrus</t>
+          <t>Plasmodium</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>角叉菜属</t>
+          <t>疟原虫属</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Synura</t>
+          <t>Chorda</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>合尾藻属</t>
+          <t>绳藻属</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Thalassiosira</t>
+          <t>Poterioochromonas</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>圆筛藻属</t>
+          <t>波豆形金藻属</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Phaeodactylum</t>
+          <t>Aphanomyces</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>褐指藻属</t>
+          <t>丝囊霉属</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Bacillaria</t>
+          <t>Emiliania</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>杆状藻属</t>
+          <t>艾氏藻属</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Bremia</t>
+          <t>Chondrus</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>盘梗霉属</t>
+          <t>角叉菜属</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Trypanosoma</t>
+          <t>Synura</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>锥虫属</t>
+          <t>合尾藻属</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Naegleria</t>
+          <t>Thalassiosira</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>耐格里属</t>
+          <t>圆筛藻属</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Theileria</t>
+          <t>Phaeodactylum</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>泰勒虫属</t>
+          <t>褐指藻属</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Blastocystis</t>
+          <t>Bacillaria</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>芽囊原虫属</t>
+          <t>杆状藻属</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Cafeteria</t>
+          <t>Trypanosoma</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>食菌滴虫属</t>
+          <t>锥虫属</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Phytophthora</t>
+          <t>Naegleria</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>疫霉属</t>
+          <t>耐格里属</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Cryptosporidium</t>
+          <t>Theileria</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>隐孢子虫属</t>
+          <t>泰勒虫属</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Pleurosigma</t>
+          <t>Blastocystis</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>斜纹藻属</t>
+          <t>芽囊原虫属</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Pleurocladia</t>
+          <t>Cafeteria</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>侧枝藻属</t>
+          <t>食菌滴虫属</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Cyanidioschyzon</t>
+          <t>Phytophthora</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>蓝载藻属</t>
+          <t>疫霉属</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Tetrahymena</t>
+          <t>Cryptosporidium</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>四膜虫属</t>
+          <t>隐孢子虫属</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Leishmania</t>
+          <t>Pleurosigma</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>利什曼原虫属</t>
+          <t>斜纹藻属</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Monosiga</t>
+          <t>Pleurocladia</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>单领鞭虫属</t>
+          <t>侧枝藻属</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Acanthoceras</t>
+          <t>Cyanidioschyzon</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>棘冠藻属</t>
+          <t>蓝载藻属</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Capsaspora</t>
+          <t>Tetrahymena</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>帽形孢属</t>
+          <t>四膜虫属</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Sphaeroforma</t>
+          <t>Leishmania</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>球形体属</t>
+          <t>利什曼原虫属</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Saprolegnia</t>
+          <t>Monosiga</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>水霉属</t>
+          <t>单领鞭虫属</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Salpingoeca</t>
+          <t>Acanthoceras</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>领鞭毛虫属</t>
+          <t>棘冠藻属</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Rhizochromulina</t>
+          <t>Capsaspora</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>根色金藻属</t>
+          <t>帽形孢属</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Plagiogrammopsis</t>
+          <t>Sphaeroforma</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>斜纹藻形属</t>
+          <t>球形体属</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Acanthamoeba</t>
+          <t>Saprolegnia</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>棘阿米巴属</t>
+          <t>水霉属</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Cyanophora</t>
+          <t>Rhizochromulina</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>蓝隐藻属</t>
+          <t>根色金藻属</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Glaucocystis</t>
+          <t>Plagiogrammopsis</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>灰胞藻属</t>
+          <t>斜纹藻形属</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Euglena</t>
+          <t>Acanthamoeba</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>眼虫属</t>
+          <t>棘阿米巴属</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Discoplastis</t>
+          <t>Glaucocystis</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>盘质藻属</t>
+          <t>灰胞藻属</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Teleaulax</t>
+          <t>Euglena</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>细柱藻属</t>
+          <t>眼虫属</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Leptomonas</t>
+          <t>Discoplastis</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>细滴虫属</t>
+          <t>盘质藻属</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Babesia</t>
+          <t>Teleaulax</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>巴贝虫属</t>
+          <t>细柱藻属</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Sahlingia</t>
+          <t>Leptomonas</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>萨林藻属</t>
+          <t>细滴虫属</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Cyanidiococcus</t>
+          <t>Babesia</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>蓝枝藻属</t>
+          <t>巴贝虫属</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
+          <t>Sahlingia</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>萨林藻属</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Cyanidiococcus</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>蓝枝藻属</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
           <t>Tsukubamonas</t>
         </is>
       </c>
-      <c r="B61" t="inlineStr">
+      <c r="B63" t="inlineStr">
         <is>
           <t>筑波单胞虫属</t>
         </is>

--- a/mapping/Protozoa.xlsx
+++ b/mapping/Protozoa.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B63"/>
+  <dimension ref="A1:B65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1177,6 +1177,30 @@
         </is>
       </c>
     </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Discostella</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>小盘星藻属</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>Vischeria</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>绿胶藻属</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/mapping/Protozoa.xlsx
+++ b/mapping/Protozoa.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B65"/>
+  <dimension ref="A1:B66"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -784,418 +784,430 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Synura</t>
+          <t>Phytophthora</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>合尾藻属</t>
+          <t>疫霉属</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Thalassiosira</t>
+          <t>Synura</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>圆筛藻属</t>
+          <t>合尾藻属</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Phaeodactylum</t>
+          <t>Pleurocladia</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>褐指藻属</t>
+          <t>侧枝藻属</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Bacillaria</t>
+          <t>Monosiga</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>杆状藻属</t>
+          <t>单领鞭虫属</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Trypanosoma</t>
+          <t>Theileria</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>锥虫属</t>
+          <t>泰勒虫属</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Naegleria</t>
+          <t>Hapterophycus</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>耐格里属</t>
+          <t>固着藻属</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Theileria</t>
+          <t>Thalassiosira</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>泰勒虫属</t>
+          <t>圆筛藻属</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Blastocystis</t>
+          <t>Phaeodactylum</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>芽囊原虫属</t>
+          <t>褐指藻属</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Cafeteria</t>
+          <t>Bacillaria</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>食菌滴虫属</t>
+          <t>杆状藻属</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Phytophthora</t>
+          <t>Trypanosoma</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>疫霉属</t>
+          <t>锥虫属</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Cryptosporidium</t>
+          <t>Naegleria</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>隐孢子虫属</t>
+          <t>耐格里属</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Pleurosigma</t>
+          <t>Blastocystis</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>斜纹藻属</t>
+          <t>芽囊原虫属</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Pleurocladia</t>
+          <t>Cafeteria</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>侧枝藻属</t>
+          <t>食菌滴虫属</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Cyanidioschyzon</t>
+          <t>Cryptosporidium</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>蓝载藻属</t>
+          <t>隐孢子虫属</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Tetrahymena</t>
+          <t>Pleurosigma</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>四膜虫属</t>
+          <t>斜纹藻属</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Leishmania</t>
+          <t>Cyanidioschyzon</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>利什曼原虫属</t>
+          <t>蓝载藻属</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Monosiga</t>
+          <t>Tetrahymena</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>单领鞭虫属</t>
+          <t>四膜虫属</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Acanthoceras</t>
+          <t>Leishmania</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>棘冠藻属</t>
+          <t>利什曼原虫属</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Capsaspora</t>
+          <t>Acanthoceras</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>帽形孢属</t>
+          <t>棘冠藻属</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Sphaeroforma</t>
+          <t>Capsaspora</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>球形体属</t>
+          <t>帽形孢属</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Saprolegnia</t>
+          <t>Sphaeroforma</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>水霉属</t>
+          <t>球形体属</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Rhizochromulina</t>
+          <t>Saprolegnia</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>根色金藻属</t>
+          <t>水霉属</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Plagiogrammopsis</t>
+          <t>Rhizochromulina</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>斜纹藻形属</t>
+          <t>根色金藻属</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Acanthamoeba</t>
+          <t>Plagiogrammopsis</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>棘阿米巴属</t>
+          <t>斜纹藻形属</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Glaucocystis</t>
+          <t>Acanthamoeba</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>灰胞藻属</t>
+          <t>棘阿米巴属</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Euglena</t>
+          <t>Glaucocystis</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>眼虫属</t>
+          <t>灰胞藻属</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Discoplastis</t>
+          <t>Euglena</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>盘质藻属</t>
+          <t>眼虫属</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Teleaulax</t>
+          <t>Discoplastis</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>细柱藻属</t>
+          <t>盘质藻属</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Leptomonas</t>
+          <t>Teleaulax</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>细滴虫属</t>
+          <t>细柱藻属</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Babesia</t>
+          <t>Leptomonas</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>巴贝虫属</t>
+          <t>细滴虫属</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Sahlingia</t>
+          <t>Babesia</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>萨林藻属</t>
+          <t>巴贝虫属</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Cyanidiococcus</t>
+          <t>Sahlingia</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>蓝枝藻属</t>
+          <t>萨林藻属</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Tsukubamonas</t>
+          <t>Cyanidiococcus</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>筑波单胞虫属</t>
+          <t>蓝枝藻属</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Discostella</t>
+          <t>Tsukubamonas</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>小盘星藻属</t>
+          <t>筑波单胞虫属</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
+          <t>Discostella</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>小盘星藻属</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
           <t>Vischeria</t>
         </is>
       </c>
-      <c r="B65" t="inlineStr">
+      <c r="B66" t="inlineStr">
         <is>
           <t>绿胶藻属</t>
         </is>
